--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_201.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_201.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2392241379310345</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A/b3', 'A/3', 'D']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(60.180884, 68.841927)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(65.369945, 69.520476)]</t>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:08.413696', '0:00:11.072593')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1535714285714286</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_25</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1839080459770115</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['C', 'C/7', 'C/6'], ['F/7', 'F/6', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(114.52, 115.66)]</t>
+          <t>[['Bb', 'Bb', 'Bb'], ['Eb', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361)]</t>
+          <t>[('0:01:09.901000', '0:01:17.903000'), ('0:00:32.090000', '0:00:37.538000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:31.370000', '0:00:36.950000'), ('0:00:38.830000', '0:00:43.560000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06681818181818182</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['G:7', 'C:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09980620155038759</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(21.41, 24.83), (9.91, 14.0)]</t>
+          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929), (18.783807, 24.845034)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:11.300000', '0:00:39')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:19.840000', '0:00:26.040000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'F', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1485507246376812</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'E', 'B', 'F#']]</t>
+          <t>[['D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(64.514625, 92.97068)]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.107074, 27.450839)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1770833333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.44, 12.42)]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2166666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.7, 18.3)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:09.162102', '0:00:15.791400')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(107.1, 109.3)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(25.18, 55.62)]</t>
+          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C', 'F', 'C']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3553921568627451</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A', 'E', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.17907, 25.606371)]</t>
+          <t>[['D', 'A', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(111.92, 115.98)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:05.747000', '0:01:30.024000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:32.351768', '0:00:43.926916')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(164.36, 206.12)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(97.98, 122.64)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1053351573187414</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'E'], ['D', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B'], ['A', 'E', 'B', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(50.730362, 54.666145), (51.71721, 55.420793)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.284457, 22.098788), (2.512756, 13.890534)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1992753623188406</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(23.428956, 30.731632)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.46, 7.6)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2611607142857143</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(65.81034, 71.679931)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2355769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(157.019, 164.66)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(11.86, 16.52)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07477153143173636</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.42, 22.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68), (56.72, 58.88)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(70.06, 80.28), (16.92, 23.9)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08961038961038961</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.53, 17.43)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.976, 44.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
